--- a/testData/TestDataFile.xlsx
+++ b/testData/TestDataFile.xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="132" windowWidth="22932" windowHeight="9240"/>
+    <workbookView xWindow="90" yWindow="135" windowWidth="20730" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>UserID</t>
   </si>
@@ -79,6 +77,18 @@
   </si>
   <si>
     <t>test@3</t>
+  </si>
+  <si>
+    <t>testuser4</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>mahespatil@gmail.com</t>
+  </si>
+  <si>
+    <t>test@4</t>
   </si>
 </sst>
 </file>
@@ -423,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -524,6 +534,29 @@
         <v>20</v>
       </c>
       <c r="G4">
+        <v>7654665458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>105645</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
         <v>7654665458</v>
       </c>
     </row>
@@ -535,31 +568,9 @@
     <hyperlink ref="F3" r:id="rId4"/>
     <hyperlink ref="E4" r:id="rId5"/>
     <hyperlink ref="F4" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="F5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>